--- a/12-01-24 to 12-07-24 Milwaukee Schedule.xlsx
+++ b/12-01-24 to 12-07-24 Milwaukee Schedule.xlsx
@@ -2812,7 +2812,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve">SALE INVENTORIES </t>
+          <t xml:space="preserve">*SALE INVENTORIES </t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2851,7 +2851,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve">NIMITE IS THE CONTACT </t>
+          <t xml:space="preserve">*NIMITE IS THE CONTACT </t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -3627,7 +3627,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>SALE INVENTORIES</t>
+          <t>*SALE INVENTORIES</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -3666,7 +3666,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>NIMITE IS THE CONTACT</t>
+          <t>*NIMITE IS THE CONTACT</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -3962,7 +3962,7 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>SALE INVENTORIES</t>
+          <t>*SALE INVENTORIES</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>NIMITE IS THE CONTACT</t>
+          <t>*NIMITE IS THE CONTACT</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>

--- a/12-01-24 to 12-07-24 Milwaukee Schedule.xlsx
+++ b/12-01-24 to 12-07-24 Milwaukee Schedule.xlsx
@@ -536,11 +536,19 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -548,11 +556,19 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
@@ -563,11 +579,19 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -590,7 +614,11 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>

--- a/12-01-24 to 12-07-24 Milwaukee Schedule.xlsx
+++ b/12-01-24 to 12-07-24 Milwaukee Schedule.xlsx
@@ -1538,7 +1538,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -2017,10 +2017,14 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
@@ -2080,10 +2084,14 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr"/>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
@@ -2143,12 +2151,13 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx, Train w/ Ian</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
@@ -2214,13 +2223,12 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx, Train w/ Ian</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
@@ -2279,9 +2287,21 @@
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>20)</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Kirsten</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
@@ -2334,9 +2354,21 @@
         </is>
       </c>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>21)</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Lena</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
@@ -2389,13 +2421,21 @@
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>22)</t>
+        </is>
+      </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Office</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr"/>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
@@ -2449,13 +2489,21 @@
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>23)</t>
+        </is>
+      </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr"/>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
@@ -2504,9 +2552,21 @@
         </is>
       </c>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>24)</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Serena</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
@@ -2679,7 +2739,11 @@
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2718,7 +2782,11 @@
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>

--- a/12-01-24 to 12-07-24 Milwaukee Schedule.xlsx
+++ b/12-01-24 to 12-07-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y92"/>
+  <dimension ref="A1:Y93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3395,7 +3395,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>**Early arrival time to help us get into the site on time**</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3438,7 +3438,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t xml:space="preserve">5:45 AM ARRIVAL/START </t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3482,7 +3482,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>ASCENSION IP CSMM COLUMBIA ST MARY'S WOMEN'S MEDICAL CENTER, MILWAUKEE</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3521,7 +3521,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2323 N LAKE DR</t>
+          <t>ASCENSION IP CSMM COLUMBIA ST MARY'S WOMEN'S MEDICAL CENTER, MILWAUKEE</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3552,7 +3552,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/86sUJVyjHnUKr7tv8</t>
+          <t>2323 N LAKE DR</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3583,7 +3583,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Timesheet totals - split Regular location total under Floor - Chemo under Backroom.</t>
+          <t>https://goo.gl/maps/86sUJVyjHnUKr7tv8</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3616,7 +3616,11 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Timesheet totals - split Regular location total under Floor - Chemo under Backroom.</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
@@ -3646,21 +3650,9 @@
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
@@ -3691,15 +3683,19 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
@@ -3730,12 +3726,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -3769,12 +3765,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -3808,12 +3804,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -3847,12 +3843,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -3886,12 +3882,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -3923,8 +3919,16 @@
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
@@ -3986,11 +3990,7 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -4023,7 +4023,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -4058,7 +4058,7 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>*SALE INVENTORIES</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
@@ -4093,7 +4093,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>*NIMITE IS THE CONTACT</t>
+          <t>*SALE INVENTORIES</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -4128,7 +4128,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>BP, MADISON</t>
+          <t>*NIMITE IS THE CONTACT</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4163,7 +4163,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>5551 EASTPARK BLVD</t>
+          <t>BP, MADISON</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4194,7 +4194,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/P2QTBsm89yExdexP7</t>
+          <t>5551 EASTPARK BLVD</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4237,7 +4237,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://maps.app.goo.gl/P2QTBsm89yExdexP7</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -4281,7 +4281,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>BP, MCFARLAND</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -4320,7 +4320,7 @@
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>4800 LARSON BEACH RD</t>
+          <t>BP, MCFARLAND</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
@@ -4351,7 +4351,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/g9ZFq1UMsqvdayRbA</t>
+          <t>4800 LARSON BEACH RD</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -4382,7 +4382,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://maps.app.goo.gl/g9ZFq1UMsqvdayRbA</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -4413,7 +4413,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>BP, MCFARLAND</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>4701 BURMA RD</t>
+          <t>BP, MCFARLAND</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -4475,7 +4475,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/rXbi7d2kYPKr8EEU6</t>
+          <t>4701 BURMA RD</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -4504,7 +4504,11 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/rXbi7d2kYPKr8EEU6</t>
+        </is>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
@@ -4530,21 +4534,9 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
@@ -4571,17 +4563,17 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L91" t="inlineStr"/>
@@ -4610,12 +4602,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -4638,6 +4630,45 @@
       <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr"/>
     </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-01-24 to 12-07-24 Milwaukee Schedule.xlsx
+++ b/12-01-24 to 12-07-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y93"/>
+  <dimension ref="A1:Y95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,7 +753,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>PICK #889 +RX, MENOMONEE FALLS</t>
+          <t>PICK #889, MENOMONEE FALLS (NO RX)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -935,7 +935,11 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>NO RX COUNT (INCLUDING OTC) NEEDED HERE THIS TIME.  This is an additional inventory added in</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
@@ -973,21 +977,13 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>per Kroger request, and they said additional Rx count is not necessary</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
@@ -1057,16 +1053,8 @@
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Greg</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1118,15 +1106,19 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -1177,12 +1169,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1240,12 +1232,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1303,12 +1295,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1370,19 +1362,15 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
@@ -1437,19 +1425,15 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
@@ -1509,12 +1493,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1576,12 +1560,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1631,12 +1615,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1698,12 +1682,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1765,12 +1749,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1836,12 +1820,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1912,18 +1896,17 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx, Train w/ Nate</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -1984,12 +1967,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2047,12 +2030,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2114,12 +2097,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2186,12 +2169,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>19)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2257,12 +2240,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>20)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2324,12 +2307,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>21)</t>
+          <t>19)</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2391,12 +2374,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>22)</t>
+          <t>20)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2458,18 +2441,17 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>23)</t>
+          <t>21)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
@@ -2522,12 +2504,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>24)</t>
+          <t>22)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2598,12 +2580,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>25)</t>
+          <t>23)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2657,12 +2639,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>26)</t>
+          <t>24)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2708,12 +2690,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>27)</t>
+          <t>25)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2761,9 +2743,21 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>26)</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
@@ -2808,9 +2802,21 @@
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>27)</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
@@ -2840,11 +2846,7 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START  </t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
@@ -2875,11 +2877,7 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
@@ -2916,7 +2914,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>*NEW ACCOUNT</t>
+          <t xml:space="preserve">6:00 AM START  </t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2955,7 +2953,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>MONTERRY MARKET, MILWAUKEE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2998,7 +2996,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t xml:space="preserve">3920 S 27TH ST </t>
+          <t>*NEW ACCOUNT</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3033,7 +3031,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/S7KHLEd1zmjtWq7b6</t>
+          <t>MONTERRY MARKET, MILWAUKEE</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3066,7 +3064,11 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3920 S 27TH ST </t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
@@ -3096,21 +3098,13 @@
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/S7KHLEd1zmjtWq7b6</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
@@ -3139,16 +3133,8 @@
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
@@ -3180,15 +3166,19 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
@@ -3219,12 +3209,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3258,12 +3248,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3297,12 +3287,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3334,8 +3324,16 @@
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
@@ -3365,8 +3363,16 @@
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
@@ -3393,11 +3399,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>**Early arrival time to help us get into the site on time**</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
@@ -3436,11 +3438,7 @@
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5:45 AM ARRIVAL/START </t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -3482,7 +3480,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>**Early arrival time to help us get into the site on time**</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3521,7 +3519,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>ASCENSION IP CSMM COLUMBIA ST MARY'S WOMEN'S MEDICAL CENTER, MILWAUKEE</t>
+          <t xml:space="preserve">5:45 AM ARRIVAL/START </t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3552,7 +3550,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>2323 N LAKE DR</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3583,7 +3581,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/86sUJVyjHnUKr7tv8</t>
+          <t>ASCENSION IP CSMM COLUMBIA ST MARY'S WOMEN'S MEDICAL CENTER, MILWAUKEE</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3618,7 +3616,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Timesheet totals - split Regular location total under Floor - Chemo under Backroom.</t>
+          <t>2323 N LAKE DR</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -3651,7 +3649,11 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/86sUJVyjHnUKr7tv8</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
@@ -3681,21 +3683,13 @@
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>Timesheet totals - split Regular location total under Floor - Chemo under Backroom.</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
@@ -3724,16 +3718,8 @@
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
@@ -3765,15 +3751,19 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
@@ -3804,12 +3794,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -3843,12 +3833,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -3882,12 +3872,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -3921,12 +3911,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -3958,8 +3948,16 @@
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
@@ -3989,8 +3987,16 @@
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -4021,11 +4027,7 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
@@ -4056,11 +4058,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
@@ -4093,7 +4091,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>*SALE INVENTORIES</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -4128,7 +4126,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>*NIMITE IS THE CONTACT</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4163,7 +4161,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>BP, MADISON</t>
+          <t>*SALE INVENTORIES</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4194,7 +4192,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>5551 EASTPARK BLVD</t>
+          <t>*NIMITE IS THE CONTACT</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4237,7 +4235,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/P2QTBsm89yExdexP7</t>
+          <t>BP, MADISON</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -4281,7 +4279,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>5551 EASTPARK BLVD</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -4320,7 +4318,7 @@
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>BP, MCFARLAND</t>
+          <t>https://maps.app.goo.gl/P2QTBsm89yExdexP7</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
@@ -4351,7 +4349,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>4800 LARSON BEACH RD</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -4382,7 +4380,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/g9ZFq1UMsqvdayRbA</t>
+          <t>BP, MCFARLAND</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -4413,7 +4411,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>4800 LARSON BEACH RD</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -4444,7 +4442,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>BP, MCFARLAND</t>
+          <t>https://maps.app.goo.gl/g9ZFq1UMsqvdayRbA</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -4475,7 +4473,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>4701 BURMA RD</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -4506,7 +4504,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/rXbi7d2kYPKr8EEU6</t>
+          <t>BP, MCFARLAND</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -4535,7 +4533,11 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>4701 BURMA RD</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
@@ -4561,21 +4563,13 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/rXbi7d2kYPKr8EEU6</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
@@ -4600,21 +4594,9 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
@@ -4641,17 +4623,17 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L93" t="inlineStr"/>
@@ -4669,6 +4651,84 @@
       <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr"/>
     </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-01-24 to 12-07-24 Milwaukee Schedule.xlsx
+++ b/12-01-24 to 12-07-24 Milwaukee Schedule.xlsx
@@ -541,7 +541,11 @@
           <t xml:space="preserve">DJ </t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 3,4</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
@@ -549,7 +553,11 @@
           <t xml:space="preserve">Kim </t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 5,6</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -561,7 +569,11 @@
           <t xml:space="preserve">Kim </t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
@@ -569,7 +581,11 @@
           <t xml:space="preserve">DJ </t>
         </is>
       </c>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -584,7 +600,11 @@
           <t xml:space="preserve">Kim </t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 6</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
@@ -592,7 +612,11 @@
           <t xml:space="preserve">Katherine </t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bags 7,8</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -619,7 +643,11 @@
           <t xml:space="preserve">Katherine </t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>

--- a/12-01-24 to 12-07-24 Milwaukee Schedule.xlsx
+++ b/12-01-24 to 12-07-24 Milwaukee Schedule.xlsx
@@ -1449,7 +1449,12 @@
           <t>Sue</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
@@ -1512,12 +1517,7 @@
           <t>Sydney</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>

--- a/12-01-24 to 12-07-24 Milwaukee Schedule.xlsx
+++ b/12-01-24 to 12-07-24 Milwaukee Schedule.xlsx
@@ -1466,7 +1466,11 @@
           <t>Victor</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Until 8:30</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">

--- a/12-01-24 to 12-07-24 Milwaukee Schedule.xlsx
+++ b/12-01-24 to 12-07-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y95"/>
+  <dimension ref="A1:Y94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2834,21 +2834,9 @@
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>27)</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
@@ -2909,7 +2897,11 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:00 AM START  </t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
@@ -2946,7 +2938,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START  </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2985,7 +2977,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>*NEW ACCOUNT</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3028,7 +3020,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>*NEW ACCOUNT</t>
+          <t>MONTERRY MARKET, MILWAUKEE</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3063,7 +3055,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>MONTERRY MARKET, MILWAUKEE</t>
+          <t xml:space="preserve">3920 S 27TH ST </t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3098,7 +3090,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t xml:space="preserve">3920 S 27TH ST </t>
+          <t>https://maps.app.goo.gl/S7KHLEd1zmjtWq7b6</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3131,11 +3123,7 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/S7KHLEd1zmjtWq7b6</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
@@ -3165,9 +3153,21 @@
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -3198,19 +3198,15 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
@@ -3241,12 +3237,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3280,12 +3276,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3319,12 +3315,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3358,12 +3354,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3395,16 +3391,8 @@
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
@@ -3470,7 +3458,11 @@
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>**Early arrival time to help us get into the site on time**</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -3512,7 +3504,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>**Early arrival time to help us get into the site on time**</t>
+          <t xml:space="preserve">5:45 AM ARRIVAL/START </t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3551,7 +3543,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t xml:space="preserve">5:45 AM ARRIVAL/START </t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3582,7 +3574,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>ASCENSION IP CSMM COLUMBIA ST MARY'S WOMEN'S MEDICAL CENTER, MILWAUKEE</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3613,7 +3605,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>ASCENSION IP CSMM COLUMBIA ST MARY'S WOMEN'S MEDICAL CENTER, MILWAUKEE</t>
+          <t>2323 N LAKE DR</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3648,7 +3640,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>2323 N LAKE DR</t>
+          <t>https://goo.gl/maps/86sUJVyjHnUKr7tv8</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -3683,7 +3675,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/86sUJVyjHnUKr7tv8</t>
+          <t>Timesheet totals - split Regular location total under Floor - Chemo under Backroom.</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -3716,11 +3708,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Timesheet totals - split Regular location total under Floor - Chemo under Backroom.</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
@@ -3750,9 +3738,21 @@
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
@@ -3783,19 +3783,15 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
@@ -3826,12 +3822,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -3865,12 +3861,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -3904,12 +3900,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -3943,12 +3939,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -3982,12 +3978,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -4019,16 +4015,8 @@
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -4090,7 +4078,11 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
@@ -4123,7 +4115,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -4158,7 +4150,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>*SALE INVENTORIES</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4193,7 +4185,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>*SALE INVENTORIES</t>
+          <t>*NIMITE IS THE CONTACT</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4224,7 +4216,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>*NIMITE IS THE CONTACT</t>
+          <t>BP, MADISON</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4267,7 +4259,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>BP, MADISON</t>
+          <t>5551 EASTPARK BLVD</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -4311,7 +4303,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>5551 EASTPARK BLVD</t>
+          <t>https://maps.app.goo.gl/P2QTBsm89yExdexP7</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -4350,7 +4342,7 @@
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/P2QTBsm89yExdexP7</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
@@ -4381,7 +4373,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>BP, MCFARLAND</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -4412,7 +4404,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>BP, MCFARLAND</t>
+          <t>4800 LARSON BEACH RD</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -4443,7 +4435,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>4800 LARSON BEACH RD</t>
+          <t>https://maps.app.goo.gl/g9ZFq1UMsqvdayRbA</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -4474,7 +4466,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/g9ZFq1UMsqvdayRbA</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -4505,7 +4497,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>BP, MCFARLAND</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -4536,7 +4528,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>BP, MCFARLAND</t>
+          <t>4701 BURMA RD</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -4567,7 +4559,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>4701 BURMA RD</t>
+          <t>https://maps.app.goo.gl/rXbi7d2kYPKr8EEU6</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -4596,11 +4588,7 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/rXbi7d2kYPKr8EEU6</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
@@ -4626,9 +4614,21 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
@@ -4655,17 +4655,17 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="L93" t="inlineStr"/>
@@ -4694,12 +4694,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -4722,45 +4722,6 @@
       <c r="X94" t="inlineStr"/>
       <c r="Y94" t="inlineStr"/>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr"/>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-01-24 to 12-07-24 Milwaukee Schedule.xlsx
+++ b/12-01-24 to 12-07-24 Milwaukee Schedule.xlsx
@@ -977,12 +977,12 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Optima available, Equip</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
@@ -1802,10 +1802,15 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
@@ -1873,15 +1878,10 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -2020,10 +2020,14 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr"/>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2083,7 +2087,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2150,7 +2154,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2222,7 +2226,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2293,7 +2297,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2360,7 +2364,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2427,7 +2431,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2494,7 +2498,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2557,7 +2561,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -2633,7 +2637,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -2692,7 +2696,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Seth</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -2743,7 +2747,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Seth</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -2791,21 +2795,9 @@
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
@@ -2870,7 +2862,11 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
@@ -2907,7 +2903,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2946,10 +2942,14 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Until 1:00</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
@@ -2983,16 +2983,8 @@
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Until 1:00</t>
-        </is>
-      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>

--- a/12-01-24 to 12-07-24 Milwaukee Schedule.xlsx
+++ b/12-01-24 to 12-07-24 Milwaukee Schedule.xlsx
@@ -1902,7 +1902,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -1971,16 +1971,8 @@
           <t>15)</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -2041,7 +2033,8 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2170,13 +2163,12 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx, Train w/ Ian</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
@@ -2242,7 +2234,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2313,7 +2305,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -2380,7 +2372,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -2447,7 +2439,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -2514,7 +2506,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -2570,21 +2562,9 @@
         </is>
       </c>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>24)</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>Serena</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>

--- a/12-01-24 to 12-07-24 Milwaukee Schedule.xlsx
+++ b/12-01-24 to 12-07-24 Milwaukee Schedule.xlsx
@@ -1288,7 +1288,11 @@
           <t>DJ</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
@@ -1348,14 +1352,10 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -1961,18 +1961,31 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
           <t>15)</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -2028,13 +2041,12 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2096,7 +2108,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2163,7 +2175,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2234,7 +2246,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2305,7 +2317,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -2372,7 +2384,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -2439,7 +2451,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -2499,21 +2511,9 @@
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>23)</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>Serena</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
@@ -2627,7 +2627,11 @@
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
@@ -2686,7 +2690,11 @@
       </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
@@ -2737,11 +2745,7 @@
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2780,11 +2784,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
